--- a/steps docs/updates for increment.xlsx
+++ b/steps docs/updates for increment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Task Name</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Thur 11/30/2017</t>
+  </si>
+  <si>
+    <t>Addition of Freshmen</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -178,11 +181,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -203,6 +217,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F12"/>
+  <dimension ref="B5:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +620,14 @@
         <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
